--- a/Rivera Cruz Ezequiel 20212.xlsx
+++ b/Rivera Cruz Ezequiel 20212.xlsx
@@ -3961,7 +3961,7 @@
         <v>230</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4057,7 +4057,7 @@
         <v>233</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4249,7 +4249,7 @@
         <v>238</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5820,7 +5820,7 @@
         <v>611</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6225,7 +6225,7 @@
         <v>706</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">

--- a/Rivera Cruz Ezequiel 20212.xlsx
+++ b/Rivera Cruz Ezequiel 20212.xlsx
@@ -3428,7 +3428,7 @@
         <v>218</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
